--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2897C8-0999-4AE9-A13B-2D2887FD4864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53074E2-2BCE-40EF-865A-CD9F39065606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="2196" yWindow="1308" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1640,12 +1640,12 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1765,12 +1765,12 @@
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="9" t="s">
         <v>53</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53074E2-2BCE-40EF-865A-CD9F39065606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F64BB7-A91A-4528-BAA2-9E55D2102398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="1308" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1495,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A430" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="9" t="s">
         <v>54</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F64BB7-A91A-4528-BAA2-9E55D2102398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6094C0A-91CA-4B3C-9F39-AA6216C3CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1496,7 +1496,7 @@
   <dimension ref="A1:A441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="9" t="s">
         <v>55</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6094C0A-91CA-4B3C-9F39-AA6216C3CF33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A6684F-F4D4-4A9C-97F4-41F62031AF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,6 +1131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF2AF62A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1148,7 +1154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1171,6 +1177,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1495,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1785,17 +1794,17 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="9" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1865,7 +1874,7 @@
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="10" t="s">
         <v>72</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A6684F-F4D4-4A9C-97F4-41F62031AF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273500F0-181D-4F3D-BEC1-41783299A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A98" sqref="A98"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="9" t="s">
         <v>59</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273500F0-181D-4F3D-BEC1-41783299A1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB7469-5C59-4525-9370-B3A69E6AD7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="4056" yWindow="1248" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1075,7 +1075,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1120,8 +1120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1140,6 +1147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1154,7 +1167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1180,6 +1193,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1504,8 +1520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1814,7 +1830,7 @@
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3677,5 +3693,6 @@
     <hyperlink ref="A441" r:id="rId304" display="https://codeforces.com/contest/777/problem/E" xr:uid="{D95542B7-186D-4CE3-850F-C4881AE6C340}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId305"/>
 </worksheet>
 </file>
--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB7469-5C59-4525-9370-B3A69E6AD7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8991C-0E91-42E3-9D14-3069CDA94467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4056" yWindow="1248" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,7 +1128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1144,12 +1144,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1195,7 +1189,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA58" workbookViewId="0">
       <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F8991C-0E91-42E3-9D14-3069CDA94467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FA49F7-9586-467B-824B-BDACA1C6B321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13728" yWindow="0" windowWidth="9408" windowHeight="13056" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA58" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1534,7 +1534,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FA49F7-9586-467B-824B-BDACA1C6B321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B316E7F5-EC74-4CE5-9B7B-1A4A7ADEBFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="14052" yWindow="0" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1579,7 @@
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B316E7F5-EC74-4CE5-9B7B-1A4A7ADEBFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8658BF-3BBB-4A47-BF91-4BB0EF76F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14052" yWindow="0" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,7 +1669,7 @@
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="9" t="s">
         <v>29</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8658BF-3BBB-4A47-BF91-4BB0EF76F427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16321FA9-85B3-4D4B-8771-749BB412EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,7 +1674,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="9" t="s">
         <v>30</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16321FA9-85B3-4D4B-8771-749BB412EA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9405E-C55A-4B84-BE87-340C97118D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:A441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1684,7 +1684,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="9" t="s">
         <v>32</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B9405E-C55A-4B84-BE87-340C97118D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FA872-23FE-4335-8C1C-4C4EAC0E35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1689,7 @@
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="9" t="s">
         <v>33</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8FA872-23FE-4335-8C1C-4C4EAC0E35B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6EEE4E-45A9-4D72-BBF0-ADF7BE375797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,7 +1694,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="9" t="s">
         <v>34</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE6EEE4E-45A9-4D72-BBF0-ADF7BE375797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0BEA26-3E54-4E50-B3E3-81864DDCD58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="10692" yWindow="900" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0BEA26-3E54-4E50-B3E3-81864DDCD58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B931E4-F5D6-4598-97AD-8747B58AD097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10692" yWindow="900" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1514,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B931E4-F5D6-4598-97AD-8747B58AD097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E9A29-7D70-4EDA-9C2D-2E5AC8AEF4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10692" yWindow="900" windowWidth="9792" windowHeight="10692" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1515,7 +1515,7 @@
   <dimension ref="A1:A441"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1699,7 +1699,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="9" t="s">
         <v>35</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85E9A29-7D70-4EDA-9C2D-2E5AC8AEF4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC40DD7-4A37-4420-BFD3-77CDCDBA43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1704,12 +1704,12 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="9" t="s">
         <v>37</v>
       </c>
     </row>

--- a/CP_Checklist.xlsx
+++ b/CP_Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Coding\Competitive_Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC40DD7-4A37-4420-BFD3-77CDCDBA43B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09194D3-F20A-4B09-A173-CAE0FE1D20AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{87F4906E-34BE-4746-8434-6C162442B7FF}"/>
   </bookViews>
@@ -1514,8 +1514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AD453A-40CD-4BCA-BF2D-B30251E79445}">
   <dimension ref="A1:A441"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1889,7 +1889,7 @@
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="9" t="s">
         <v>73</v>
       </c>
     </row>
